--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/dev/rifftop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E22C830-8F34-CD44-806D-AF6C0AAE2E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5DD0B0-C5EC-5E4E-B9DE-F3B525E48D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="3260" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1161">
-  <si>
-    <t xml:space="preserve">Moland Fengkov </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="1160">
   <si>
     <t>Mastodon – Hushed and Grim</t>
   </si>
@@ -126,9 +123,6 @@
     <t>Kauan – Ice fleet</t>
   </si>
   <si>
-    <t>Léo Gerard</t>
-  </si>
-  <si>
     <t>Amenra - De Doorne</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Violent Magic Orchestra - Principle of Light Speed Invariance</t>
   </si>
   <si>
-    <t>francois</t>
-  </si>
-  <si>
     <t>AEPHANEMER - A Dream Of Wilderness</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>Insomnium - Argent Moon</t>
   </si>
   <si>
-    <t>Caro Izinoff</t>
-  </si>
-  <si>
     <t>Leprous - Aphelion</t>
   </si>
   <si>
@@ -300,9 +288,6 @@
     <t>Vokonis - Odyssey</t>
   </si>
   <si>
-    <t>Cyril Glaume</t>
-  </si>
-  <si>
     <t>6:33 - Feary Tales For Strange Lullabies: The Dome</t>
   </si>
   <si>
@@ -369,9 +354,6 @@
     <t>HAH - Chimaera Monstrosa</t>
   </si>
   <si>
-    <t>Un Breton anonyme</t>
-  </si>
-  <si>
     <t>Diablo Swing Orchestra-Swagger &amp; Stroll Down The Rabbit Hole</t>
   </si>
   <si>
@@ -462,9 +444,6 @@
     <t>Welcome X-Vol.2</t>
   </si>
   <si>
-    <t>Orion Gael</t>
-  </si>
-  <si>
     <t>Seth - La Morsure du Christ</t>
   </si>
   <si>
@@ -525,9 +504,6 @@
     <t>Hypocrisy - Worship</t>
   </si>
   <si>
-    <t>Emilie De</t>
-  </si>
-  <si>
     <t>Mastodon - Hushed and Grim</t>
   </si>
   <si>
@@ -540,9 +516,6 @@
     <t>Psykup - Hello karma !</t>
   </si>
   <si>
-    <t>Fabien Blind</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soen - Imperial </t>
   </si>
   <si>
@@ -555,9 +528,6 @@
     <t xml:space="preserve">Gojira - Fortitude </t>
   </si>
   <si>
-    <t>Matt Gr0bzr</t>
-  </si>
-  <si>
     <t>Between the Buried and Me - Colors II</t>
   </si>
   <si>
@@ -639,9 +609,6 @@
     <t>Omnium Gatherum - Origin</t>
   </si>
   <si>
-    <t>Julien Rapillard</t>
-  </si>
-  <si>
     <t>Converge &amp; Chelsea Wolfe - Bloodmoon: I</t>
   </si>
   <si>
@@ -720,12 +687,6 @@
     <t>GLEN - PULL!</t>
   </si>
   <si>
-    <t>BeSlv</t>
-  </si>
-  <si>
-    <t>Cyril Deparis</t>
-  </si>
-  <si>
     <t>Dordeduh - Har</t>
   </si>
   <si>
@@ -801,9 +762,6 @@
     <t>Negura Bunget - Zău</t>
   </si>
   <si>
-    <t>Dee Cooper</t>
-  </si>
-  <si>
     <t>Swallow the Sun - Moonflowers</t>
   </si>
   <si>
@@ -888,9 +846,6 @@
     <t>Alice Cooper - Detroit Stories</t>
   </si>
   <si>
-    <t>Herve dunas</t>
-  </si>
-  <si>
     <t>Powerwolf the call of the wild</t>
   </si>
   <si>
@@ -903,9 +858,6 @@
     <t>Black label society doom.crew inc</t>
   </si>
   <si>
-    <t>Lili Laurent (chauboulette)</t>
-  </si>
-  <si>
     <t>Marissa Nadler - The Path of The Clouds</t>
   </si>
   <si>
@@ -918,9 +870,6 @@
     <t>Fat Soul - Electric Light &amp; Magic</t>
   </si>
   <si>
-    <t>Lucille Berne</t>
-  </si>
-  <si>
     <t>Gary Numan - Intruder</t>
   </si>
   <si>
@@ -975,9 +924,6 @@
     <t>Rob Zombie - The Lunar Injection Kool Aid Eclipse Conspiracy</t>
   </si>
   <si>
-    <t>Arsonist Tohliam</t>
-  </si>
-  <si>
     <t>Cradle of Filth - Existence is futile</t>
   </si>
   <si>
@@ -1020,9 +966,6 @@
     <t>Requiem - Collapse into chaos</t>
   </si>
   <si>
-    <t>Fabien Le Carencé</t>
-  </si>
-  <si>
     <t xml:space="preserve">Be'lakor - Cohérence </t>
   </si>
   <si>
@@ -1077,9 +1020,6 @@
     <t>Cân Bardd - Devoured By The Oak</t>
   </si>
   <si>
-    <t>David Decaudin</t>
-  </si>
-  <si>
     <t>Redscale - The old colossus</t>
   </si>
   <si>
@@ -1164,9 +1104,6 @@
     <t>IAH - Omines</t>
   </si>
   <si>
-    <t>jean-olivier</t>
-  </si>
-  <si>
     <t xml:space="preserve"> King Buffalo - The Burden of Restlessness</t>
   </si>
   <si>
@@ -1200,9 +1137,6 @@
     <t>High on Wheels - Fuzzmovies</t>
   </si>
   <si>
-    <t>Théodore Bing</t>
-  </si>
-  <si>
     <t>Emma Ruth Rundle - Engine of hell</t>
   </si>
   <si>
@@ -1266,9 +1200,6 @@
     <t>Darkthrone - Eternal hails........</t>
   </si>
   <si>
-    <t xml:space="preserve">Jean-François Chèze </t>
-  </si>
-  <si>
     <t xml:space="preserve">Go Veterans - Never Back Down </t>
   </si>
   <si>
@@ -1299,9 +1230,6 @@
     <t>Guilt Trip - Rain City</t>
   </si>
   <si>
-    <t>Jéjé Aime le Tariquet</t>
-  </si>
-  <si>
     <t>Slope - street heat</t>
   </si>
   <si>
@@ -1392,9 +1320,6 @@
     <t>Fyrnask - VII Kenoma</t>
   </si>
   <si>
-    <t>Baptiste Hinaux</t>
-  </si>
-  <si>
     <t>NEPTUNIAN MAXIMALISM - Solar Drone Ceremony</t>
   </si>
   <si>
@@ -1467,9 +1392,6 @@
     <t>Spectral Lore - Eteròfotos</t>
   </si>
   <si>
-    <t>Philippe Fournié</t>
-  </si>
-  <si>
     <t>Powerwolf - Call Of The Wild</t>
   </si>
   <si>
@@ -1485,9 +1407,6 @@
     <t>KK's Priest - Sermons Of The Sinner</t>
   </si>
   <si>
-    <t>Sébastien Durand a.k.a. "Seisachtheion"</t>
-  </si>
-  <si>
     <t>Epiphanic Truth - Dark Triad : Bitter Psalms To A Sordid Species</t>
   </si>
   <si>
@@ -1536,9 +1455,6 @@
     <t xml:space="preserve">Kanonenfieber - Menschenmühle </t>
   </si>
   <si>
-    <t xml:space="preserve">Hub gaud </t>
-  </si>
-  <si>
     <t>Gojira - fortitude</t>
   </si>
   <si>
@@ -1614,9 +1530,6 @@
     <t>Grabunhold - Heldentod</t>
   </si>
   <si>
-    <t>David Daz</t>
-  </si>
-  <si>
     <t>Maybeshewill - No Feeling Is Final</t>
   </si>
   <si>
@@ -1686,9 +1599,6 @@
     <t>Spaceslug - Memorial</t>
   </si>
   <si>
-    <t>Raph Troes</t>
-  </si>
-  <si>
     <t>Mama Killa - Private Memoirs</t>
   </si>
   <si>
@@ -1740,9 +1650,6 @@
     <t>Jason Bieler And The Baron Von Bielski Orchestra - Songs For The Apocalypse (An Auditory Excursion Of Whimsical Delirium)</t>
   </si>
   <si>
-    <t xml:space="preserve">Rey Frederic </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mastodon Hushed and Grim </t>
   </si>
   <si>
@@ -1833,9 +1740,6 @@
     <t xml:space="preserve">Iotunn Access All Worlds </t>
   </si>
   <si>
-    <t>Flavio Tripoli</t>
-  </si>
-  <si>
     <t>Anneke van Giersbergen	- The darkest skies are the brightest</t>
   </si>
   <si>
@@ -1893,9 +1797,6 @@
     <t>Sortilège - Phoenix</t>
   </si>
   <si>
-    <t>Oriza Valstein</t>
-  </si>
-  <si>
     <t>Violet Cold - Empire of love</t>
   </si>
   <si>
@@ -1920,9 +1821,6 @@
     <t>Crippled Black Phoenix - Painful Reminder / Dead Is Dead 2 titres</t>
   </si>
   <si>
-    <t>Alexis Hérissant</t>
-  </si>
-  <si>
     <t>Low - HEY WHAT</t>
   </si>
   <si>
@@ -1983,9 +1881,6 @@
     <t>Sweet Trip - A Tiny House, in Secret Speeches, Polar Equals</t>
   </si>
   <si>
-    <t>Saida Alquier Tioua</t>
-  </si>
-  <si>
     <t>Mastodon- Hushed and Grin</t>
   </si>
   <si>
@@ -2073,9 +1968,6 @@
     <t>Blanket - Modern Escapism</t>
   </si>
   <si>
-    <t>Laurent Oïljune</t>
-  </si>
-  <si>
     <t>GRIMA - Rotten Garden</t>
   </si>
   <si>
@@ -2133,9 +2025,6 @@
     <t>LIGHT OF THE MORNING STAR - Charnel noir</t>
   </si>
   <si>
-    <t>Hell Haine</t>
-  </si>
-  <si>
     <t>Red Fang - Arrows</t>
   </si>
   <si>
@@ -2181,24 +2070,12 @@
     <t>Weezer - Van Weezer</t>
   </si>
   <si>
-    <t>Mina Caputo - The Mones</t>
-  </si>
-  <si>
-    <t>Sonia Lgnr</t>
-  </si>
-  <si>
     <t>Mogwai - As the love continues</t>
   </si>
   <si>
     <t>Godspeed You Black Emperor - G_d's Pee at State's End!</t>
   </si>
   <si>
-    <t xml:space="preserve">Denis Porcin </t>
-  </si>
-  <si>
-    <t>Anthony Pwl</t>
-  </si>
-  <si>
     <t>BESTIAL INVASION - The Divine Comedy : Inferno</t>
   </si>
   <si>
@@ -2244,9 +2121,6 @@
     <t>DREAM THEATER – A View From The Top Of The World</t>
   </si>
   <si>
-    <t>Djé Obi Wan</t>
-  </si>
-  <si>
     <t>Turnstile - GLOW ON</t>
   </si>
   <si>
@@ -2277,9 +2151,6 @@
     <t xml:space="preserve">Spirit Adrift - Force Your Future (Ep) </t>
   </si>
   <si>
-    <t>Morgan  Von Feuster</t>
-  </si>
-  <si>
     <t>Blackmass // Siren (獻血) – 獻血</t>
   </si>
   <si>
@@ -2316,9 +2187,6 @@
     <t>Bishop - Bishop</t>
   </si>
   <si>
-    <t>Rémy Underdog</t>
-  </si>
-  <si>
     <t xml:space="preserve">Landmvrks - Lost in the Waves </t>
   </si>
   <si>
@@ -2328,9 +2196,6 @@
     <t>Butcher's rodeo - Haine</t>
   </si>
   <si>
-    <t xml:space="preserve">Frédéric Delmelle </t>
-  </si>
-  <si>
     <t>Der weg einer freiheit - Noktvrn</t>
   </si>
   <si>
@@ -2355,9 +2220,6 @@
     <t>Full of hell - Garden of burning apparitions</t>
   </si>
   <si>
-    <t xml:space="preserve">Richard Cam </t>
-  </si>
-  <si>
     <t>Ancient Obscurity - Nimettömät Maat</t>
   </si>
   <si>
@@ -2424,9 +2286,6 @@
     <t>Zgard - Place of Power</t>
   </si>
   <si>
-    <t xml:space="preserve">Florent taillandier </t>
-  </si>
-  <si>
     <t xml:space="preserve">Squid - Bright green field </t>
   </si>
   <si>
@@ -2466,9 +2325,6 @@
     <t xml:space="preserve">Mogwai - as the live continues </t>
   </si>
   <si>
-    <t>S1phonique</t>
-  </si>
-  <si>
     <t>Handsome Prick - Plastic Baby Living Facility</t>
   </si>
   <si>
@@ -2523,9 +2379,6 @@
     <t>Stone Rebel - Saturn's Return</t>
   </si>
   <si>
-    <t>Jean-Christophe Lacombe</t>
-  </si>
-  <si>
     <t>PLAGUE RAGES - hecatombe</t>
   </si>
   <si>
@@ -2616,9 +2469,6 @@
     <t>SKEPTICISM - companion</t>
   </si>
   <si>
-    <t>Pierre JULIEN</t>
-  </si>
-  <si>
     <t>Panopticon - ... and Again into the Light</t>
   </si>
   <si>
@@ -2682,12 +2532,6 @@
     <t>Esoctrilihum - Dy'th Requiem for the Serpent Telepath</t>
   </si>
   <si>
-    <t>Caroline d'Avout</t>
-  </si>
-  <si>
-    <t>Pagus</t>
-  </si>
-  <si>
     <t>Vola - Witness</t>
   </si>
   <si>
@@ -2775,9 +2619,6 @@
     <t>Diskord - Degenerations</t>
   </si>
   <si>
-    <t>Ugo Petropoulos</t>
-  </si>
-  <si>
     <t xml:space="preserve">At The Gates - The Nightmare of Being </t>
   </si>
   <si>
@@ -2814,9 +2655,6 @@
     <t xml:space="preserve"> Moonspell - Hermitage</t>
   </si>
   <si>
-    <t>Lauréline</t>
-  </si>
-  <si>
     <t>Anguis Dei - Angeist</t>
   </si>
   <si>
@@ -2868,9 +2706,6 @@
     <t xml:space="preserve">Enterré Vivant : Les Ténèbres ne sont pas Formées d'Ombre </t>
   </si>
   <si>
-    <t>Mohamed Kaseb</t>
-  </si>
-  <si>
     <t>Steven Wilson - The Future Bites</t>
   </si>
   <si>
@@ -2985,12 +2820,6 @@
     <t>Album 30</t>
   </si>
   <si>
-    <t>LE BAIL didier</t>
-  </si>
-  <si>
-    <t>Alex KM</t>
-  </si>
-  <si>
     <t>Vetter - Av Sublim Natur</t>
   </si>
   <si>
@@ -3138,9 +2967,6 @@
     <t xml:space="preserve">Psychedelic porn Crumpets - Shyga! The sunlight mound </t>
   </si>
   <si>
-    <t>Johan Bernhardtson</t>
-  </si>
-  <si>
     <t>Eldovar - A Story of Darkness and light</t>
   </si>
   <si>
@@ -3153,9 +2979,6 @@
     <t>BLODET - Vision</t>
   </si>
   <si>
-    <t>Arno STROBL</t>
-  </si>
-  <si>
     <t>VOICES - Breaking The Trauma Bond</t>
   </si>
   <si>
@@ -3207,9 +3030,6 @@
     <t>LEE AARON - Radio On !</t>
   </si>
   <si>
-    <t>Amduscias</t>
-  </si>
-  <si>
     <t>Wheel - Preserved In Time</t>
   </si>
   <si>
@@ -3243,9 +3063,6 @@
     <t>Sunnata - Burning In Heaven, Melting On Earth</t>
   </si>
   <si>
-    <t>Olivier Giry</t>
-  </si>
-  <si>
     <t>Der Weg Einer Freiheit - Noctvrn</t>
   </si>
   <si>
@@ -3276,9 +3093,6 @@
     <t>Converge / Chelsea Wolf - Bloodmoon : I</t>
   </si>
   <si>
-    <t>Guitoune</t>
-  </si>
-  <si>
     <t>Frontierer - Oxidizied</t>
   </si>
   <si>
@@ -3336,9 +3150,6 @@
     <t>Sorcerer - Joy</t>
   </si>
   <si>
-    <t>Winter</t>
-  </si>
-  <si>
     <t>Midnight Odyssey - Biolume pt 2</t>
   </si>
   <si>
@@ -3354,9 +3165,6 @@
     <t>Pantheist - Closer to God</t>
   </si>
   <si>
-    <t>Geffroy Jean-marie (JM)</t>
-  </si>
-  <si>
     <t>Mastodon "Hushed and Grim"</t>
   </si>
   <si>
@@ -3390,9 +3198,6 @@
     <t>Maudits - Angle Mort</t>
   </si>
   <si>
-    <t>Wën</t>
-  </si>
-  <si>
     <t>The Flight of Sleipnir - Eventide</t>
   </si>
   <si>
@@ -3435,9 +3240,6 @@
     <t>Solemn Echoes - Into The Depths Of Sorrow</t>
   </si>
   <si>
-    <t>Venceslas Bourdin</t>
-  </si>
-  <si>
     <t>Voices - Breaking the trauma Bond</t>
   </si>
   <si>
@@ -3483,9 +3285,6 @@
     <t>The Body &amp; Big|Brave - Leaving None But Small Birds</t>
   </si>
   <si>
-    <t>Maxime Fbr</t>
-  </si>
-  <si>
     <t>Mānbryne - Heilsweg : O Udręce Ciała I Tułaczce Duszy</t>
   </si>
   <si>
@@ -3514,6 +3313,204 @@
   </si>
   <si>
     <t>Vertebra Atlantis - Lustral Purge in Cerulean Bliss</t>
+  </si>
+  <si>
+    <t>Philip J Fry</t>
+  </si>
+  <si>
+    <t>Sixtine de la Jonquière</t>
+  </si>
+  <si>
+    <t>George Abitbol</t>
+  </si>
+  <si>
+    <t>Lé Rué dé Péngué</t>
+  </si>
+  <si>
+    <t>Captain Igloo</t>
+  </si>
+  <si>
+    <t>The Rock</t>
+  </si>
+  <si>
+    <t>Hedonism Bot</t>
+  </si>
+  <si>
+    <t>Morte Adèle</t>
+  </si>
+  <si>
+    <t>Mickael Quisquet</t>
+  </si>
+  <si>
+    <t>Momonosuke Oden</t>
+  </si>
+  <si>
+    <t>Blind Lemon Jefferson</t>
+  </si>
+  <si>
+    <t>Marcel Ticfrost</t>
+  </si>
+  <si>
+    <t>Nicky Larsen</t>
+  </si>
+  <si>
+    <t>Aaron Médenne</t>
+  </si>
+  <si>
+    <t>Doraemon</t>
+  </si>
+  <si>
+    <t>Ignatius Reilly</t>
+  </si>
+  <si>
+    <t>Queen Oona of Dreamland</t>
+  </si>
+  <si>
+    <t>Okami Onse</t>
+  </si>
+  <si>
+    <t>Monsieur Malaussène</t>
+  </si>
+  <si>
+    <t>Mooncake</t>
+  </si>
+  <si>
+    <t>Bender Bending Rodriguez</t>
+  </si>
+  <si>
+    <t>Ziltoid the Omniscient</t>
+  </si>
+  <si>
+    <t>Usul</t>
+  </si>
+  <si>
+    <t>Jar Jar</t>
+  </si>
+  <si>
+    <t>Kurt Cobaigne</t>
+  </si>
+  <si>
+    <t>Boris de Toulouse</t>
+  </si>
+  <si>
+    <t>Eddy Malou</t>
+  </si>
+  <si>
+    <t>Musclor</t>
+  </si>
+  <si>
+    <t>Dipsy</t>
+  </si>
+  <si>
+    <t>Lala</t>
+  </si>
+  <si>
+    <t>Po</t>
+  </si>
+  <si>
+    <t>Rollo Tomasi</t>
+  </si>
+  <si>
+    <t>Hubert Farnsworth</t>
+  </si>
+  <si>
+    <t>Hi, I'm Elfo</t>
+  </si>
+  <si>
+    <t>Flash McQueen</t>
+  </si>
+  <si>
+    <t>Tinky Winky</t>
+  </si>
+  <si>
+    <t>Trve Darklord ov the VndergroVnd</t>
+  </si>
+  <si>
+    <t>95 en force</t>
+  </si>
+  <si>
+    <t>Antonin Artaud</t>
+  </si>
+  <si>
+    <t>Turanga Leela</t>
+  </si>
+  <si>
+    <t>Archibald Simiesque</t>
+  </si>
+  <si>
+    <t>Tony Montana</t>
+  </si>
+  <si>
+    <t>Ash Qui Gon Jinn</t>
+  </si>
+  <si>
+    <t>Radagast le Brun</t>
+  </si>
+  <si>
+    <t>James Tiberius Kirk</t>
+  </si>
+  <si>
+    <t>Zapp Brannigan</t>
+  </si>
+  <si>
+    <t>Black Metal Addict</t>
+  </si>
+  <si>
+    <t>Geralt de Riv</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Commander Shepard</t>
+  </si>
+  <si>
+    <t>Maurice Moss</t>
+  </si>
+  <si>
+    <t>Karl Marx</t>
+  </si>
+  <si>
+    <t>Ebenezer Scrooge</t>
+  </si>
+  <si>
+    <t>Valerian</t>
+  </si>
+  <si>
+    <t>Plappmachine</t>
+  </si>
+  <si>
+    <t>Jean Bernardin</t>
+  </si>
+  <si>
+    <t>King Zøg of Dreamland</t>
+  </si>
+  <si>
+    <t>Baal au Centre</t>
+  </si>
+  <si>
+    <t>Porno Royale</t>
+  </si>
+  <si>
+    <t>Cabillaud Solaire</t>
+  </si>
+  <si>
+    <t>Jon Snow</t>
+  </si>
+  <si>
+    <t>Bon Scott</t>
+  </si>
+  <si>
+    <t>Khvost</t>
+  </si>
+  <si>
+    <t>Anneke Van Giesbergen</t>
+  </si>
+  <si>
+    <t>Jean-Jacques Ier de Bohème</t>
+  </si>
+  <si>
+    <t>Black Swann</t>
   </si>
 </sst>
 </file>
@@ -3799,3837 +3796,3841 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE68"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="37" width="21.5" customWidth="1"/>
+    <col min="2" max="37" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>953</v>
+      <c r="A1" t="s">
+        <v>898</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>954</v>
+        <v>899</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>955</v>
+        <v>900</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>956</v>
+        <v>901</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>957</v>
+        <v>902</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>958</v>
+        <v>903</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>960</v>
+        <v>905</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>961</v>
+        <v>906</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>962</v>
+        <v>907</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>963</v>
+        <v>908</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>964</v>
+        <v>909</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>965</v>
+        <v>910</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>966</v>
+        <v>911</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>967</v>
+        <v>912</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>968</v>
+        <v>913</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>969</v>
+        <v>914</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>970</v>
+        <v>915</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>971</v>
+        <v>916</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>972</v>
+        <v>917</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>973</v>
+        <v>918</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>974</v>
+        <v>919</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>975</v>
+        <v>920</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>976</v>
+        <v>921</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>977</v>
+        <v>922</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>978</v>
+        <v>923</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>980</v>
+        <v>925</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>981</v>
+        <v>926</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>983</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="R5" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="W5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="AE5" s="2" t="s">
-        <v>1034</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>164</v>
+      <c r="A9" s="3" t="s">
+        <v>1103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>169</v>
+      <c r="A10" s="3" t="s">
+        <v>1104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="R11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="X11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z11" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="Z12" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="AE12" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>229</v>
+      <c r="A13" s="3" t="s">
+        <v>1107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="X14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y14" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="AB14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="AD14" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="AE14" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>285</v>
+      <c r="A15" s="3" t="s">
+        <v>1109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>290</v>
+      <c r="A16" s="3" t="s">
+        <v>1110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>314</v>
+      <c r="A18" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>329</v>
+      <c r="A19" s="3" t="s">
+        <v>1113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="W20" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="X20" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="Z20" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="AA20" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="AC20" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="AD20" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>377</v>
+      <c r="A21" s="3" t="s">
+        <v>1115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>389</v>
+      <c r="A22" s="3" t="s">
+        <v>1116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>411</v>
+      <c r="A23" s="3" t="s">
+        <v>1117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA24" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="AB24" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="AC24" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="AD24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE24" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="U25" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="V25" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="W25" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y25" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="Z25" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="AA25" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="AB25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC25" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="AD25" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="AE25" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>453</v>
+      <c r="A26" s="3" t="s">
+        <v>1120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="T26" s="2" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>478</v>
+      <c r="A27" s="3" t="s">
+        <v>1121</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>484</v>
+      <c r="A28" s="3" t="s">
+        <v>1122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>501</v>
+      <c r="A29" s="3" t="s">
+        <v>1123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>984</v>
+      <c r="A30" s="3" t="s">
+        <v>1124</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>527</v>
+      <c r="A31" s="3" t="s">
+        <v>1125</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>551</v>
+      <c r="A32" s="3" t="s">
+        <v>1126</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>569</v>
+      <c r="A33" s="3" t="s">
+        <v>1127</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>600</v>
+      <c r="A34" s="3" t="s">
+        <v>1128</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>620</v>
+      <c r="A35" s="3" t="s">
+        <v>1129</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>629</v>
+      <c r="A36" s="3" t="s">
+        <v>1130</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1148</v>
+        <v>1082</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>637</v>
+        <v>603</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>644</v>
+        <v>610</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>646</v>
+        <v>612</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>648</v>
+        <v>614</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>650</v>
+      <c r="A37" s="3" t="s">
+        <v>1131</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>651</v>
+        <v>616</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>652</v>
+        <v>617</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>653</v>
+        <v>618</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>654</v>
+        <v>619</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>656</v>
+        <v>621</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>658</v>
+        <v>623</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>659</v>
+        <v>624</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>660</v>
+        <v>625</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>661</v>
+        <v>626</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>668</v>
+        <v>633</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>672</v>
+        <v>637</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>674</v>
+        <v>639</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>678</v>
+        <v>643</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>679</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>680</v>
+      <c r="A38" s="3" t="s">
+        <v>1132</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>700</v>
+      <c r="A39" s="3" t="s">
+        <v>1133</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>716</v>
+        <v>680</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>717</v>
+      <c r="A40" s="3" t="s">
+        <v>1134</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>945</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>718</v>
+        <v>177</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>165</v>
+        <v>946</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>720</v>
+      <c r="A41" s="3" t="s">
+        <v>1135</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1002</v>
+        <v>681</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>187</v>
+        <v>682</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1003</v>
+        <v>683</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1004</v>
+        <v>684</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1005</v>
+        <v>685</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1006</v>
+        <v>686</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>721</v>
+      <c r="A42" s="3" t="s">
+        <v>1136</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>723</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>737</v>
+      <c r="A43" s="3" t="s">
+        <v>1137</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>147</v>
+        <v>707</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>747</v>
+        <v>716</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>748</v>
+      <c r="A44" s="3" t="s">
+        <v>1138</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>760</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>761</v>
+      <c r="A45" s="3" t="s">
+        <v>1139</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>762</v>
+        <v>721</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>763</v>
+        <v>265</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>764</v>
+        <v>412</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>147</v>
+        <v>722</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>765</v>
+      <c r="A46" s="3" t="s">
+        <v>1140</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>766</v>
+        <v>234</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>279</v>
+        <v>477</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>436</v>
+        <v>729</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>767</v>
+        <v>730</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>768</v>
+        <v>731</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>769</v>
+        <v>732</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>771</v>
+        <v>734</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>772</v>
+        <v>498</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>773</v>
+        <v>735</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>774</v>
+      <c r="A47" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>247</v>
+        <v>751</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>505</v>
+        <v>752</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>526</v>
+        <v>759</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>242</v>
+        <v>761</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="AB47" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="AD47" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="AE47" s="2" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>797</v>
+      <c r="A48" s="3" t="s">
+        <v>1142</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>798</v>
+        <v>764</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>799</v>
+        <v>765</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>800</v>
+        <v>766</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>801</v>
+        <v>767</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>802</v>
+        <v>768</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>803</v>
+        <v>86</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>804</v>
+        <v>321</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>805</v>
+        <v>266</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>806</v>
+        <v>769</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>807</v>
+        <v>770</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>808</v>
+        <v>317</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>809</v>
+        <v>145</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>810</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="AE49" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:31" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J49" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K50" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N49" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="N50" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P50" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q50" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="R50" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="R49" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="T49" s="2" t="s">
+      <c r="S50" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="T50" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="U50" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="W50" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="W49" s="2" t="s">
+      <c r="X50" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="X49" s="2" t="s">
+      <c r="Y50" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="Y49" s="2" t="s">
+      <c r="Z50" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="Z49" s="2" t="s">
+      <c r="AA50" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="AA49" s="2"/>
-    </row>
-    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+      <c r="AB50" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="AC50" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="AD50" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="AD50" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="AE50" s="2" t="s">
-        <v>860</v>
+      <c r="AE50" s="5" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>861</v>
+      <c r="A51" s="3" t="s">
+        <v>1144</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>335</v>
+        <v>943</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>862</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>863</v>
+        <v>944</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="AD51" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="AE51" s="5" t="s">
-        <v>1160</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>883</v>
+      <c r="A52" s="3" t="s">
+        <v>1145</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>147</v>
+        <v>834</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>835</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1001</v>
+        <v>836</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>268</v>
+        <v>837</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE52" s="2" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
-        <v>884</v>
+      <c r="A53" s="3" t="s">
+        <v>1146</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>885</v>
+        <v>265</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>889</v>
+        <v>157</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>891</v>
+        <v>594</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>892</v>
+        <v>218</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>893</v>
+        <v>177</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>894</v>
+        <v>256</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>895</v>
+        <v>866</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>896</v>
+        <v>867</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>897</v>
+        <v>868</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>898</v>
+        <v>869</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>899</v>
+        <v>870</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>900</v>
+        <v>314</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>901</v>
+        <v>871</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>902</v>
+        <v>872</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>903</v>
+        <v>145</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>904</v>
+        <v>299</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="AD53" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE53" s="2" t="s">
-        <v>913</v>
+        <v>873</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
-        <v>914</v>
+      <c r="A54" s="3" t="s">
+        <v>1147</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>279</v>
+        <v>874</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>915</v>
+        <v>484</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>917</v>
+        <v>876</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>165</v>
+        <v>877</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>918</v>
+        <v>464</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>627</v>
+        <v>878</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>231</v>
+        <v>879</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>187</v>
+        <v>880</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>270</v>
+        <v>881</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>919</v>
+        <v>882</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>920</v>
+        <v>883</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>921</v>
+        <v>884</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>922</v>
+        <v>885</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>923</v>
+        <v>886</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>333</v>
+        <v>887</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>925</v>
+        <v>742</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>152</v>
+        <v>889</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>926</v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>927</v>
+      <c r="A55" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>512</v>
+        <v>94</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="H56" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="J56" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="P56" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q56" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="R56" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="V56" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="W56" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="X56" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="Y56" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="Z56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB56" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="AC56" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="AD56" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="S55" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>614</v>
+      <c r="AE56" s="5" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="P57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="Q57" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA57" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="AD57" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="AE57" s="5" t="s">
-        <v>1061</v>
-      </c>
+      <c r="B57" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
     </row>
     <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>1035</v>
+        <v>1150</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>548</v>
+        <v>982</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>353</v>
+        <v>983</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1036</v>
+        <v>984</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1037</v>
+        <v>985</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>355</v>
+        <v>986</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>1038</v>
+        <v>987</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>1039</v>
+        <v>988</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>351</v>
+        <v>989</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
+        <v>990</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>998</v>
+      </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
@@ -7646,59 +7647,57 @@
     </row>
     <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>1040</v>
+        <v>1151</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1041</v>
+        <v>260</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>1043</v>
+        <v>999</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1092</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1044</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1045</v>
+        <v>1001</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>1046</v>
+        <v>1002</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>1047</v>
+        <v>1003</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>1048</v>
+        <v>505</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1049</v>
+        <v>1004</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>1050</v>
+        <v>1005</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1051</v>
+        <v>1006</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>1052</v>
+        <v>1007</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>1053</v>
+        <v>1008</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>1054</v>
+        <v>521</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>1055</v>
+        <v>1009</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>1057</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -7715,56 +7714,50 @@
     </row>
     <row r="60" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>1058</v>
+        <v>1152</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>274</v>
+        <v>1010</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>1159</v>
+        <v>292</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>1011</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1060</v>
+        <v>1012</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1061</v>
+        <v>1013</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>1062</v>
+        <v>1014</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>1063</v>
+        <v>147</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>534</v>
+        <v>1015</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1064</v>
+        <v>1016</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>1065</v>
+        <v>1017</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1066</v>
+        <v>1018</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>1067</v>
+        <v>1019</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
@@ -7782,192 +7775,186 @@
     </row>
     <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>1070</v>
+        <v>1153</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1071</v>
+        <v>207</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>309</v>
+        <v>1020</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1072</v>
+        <v>1021</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1073</v>
+        <v>221</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1074</v>
+        <v>1022</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>1075</v>
+        <v>1023</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>154</v>
+        <v>1024</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>1076</v>
+        <v>570</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1077</v>
+        <v>178</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>1079</v>
+        <v>79</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>1080</v>
+        <v>34</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="U61" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="W61" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Y61" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Z61" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AA61" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AC61" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AD61" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AE61" s="3" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>1081</v>
+        <v>1154</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1082</v>
+        <v>1039</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1083</v>
+        <v>151</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>234</v>
+        <v>591</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1084</v>
+        <v>221</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>1085</v>
+        <v>1040</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>1086</v>
+        <v>1041</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>602</v>
+        <v>1042</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="AC62" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="AD62" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AE62" s="3" t="s">
-        <v>1100</v>
-      </c>
+        <v>1043</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
     </row>
     <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>1101</v>
+        <v>1155</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>253</v>
+        <v>1044</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1102</v>
+        <v>1045</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>158</v>
+        <v>1046</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>624</v>
+        <v>1047</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>234</v>
+        <v>1048</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>1103</v>
+        <v>1049</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>1104</v>
+        <v>1050</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>1105</v>
+        <v>1051</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="K63" s="3"/>
+        <v>1052</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>1053</v>
+      </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -7991,49 +7978,71 @@
     </row>
     <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>1107</v>
+        <v>1156</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1108</v>
+        <v>157</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1109</v>
+        <v>664</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1110</v>
+        <v>665</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1111</v>
+        <v>666</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1112</v>
+        <v>667</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>1113</v>
+        <v>668</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>1114</v>
+        <v>1054</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>1115</v>
+        <v>63</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1116</v>
+        <v>669</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
+        <v>895</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
@@ -8046,72 +8055,74 @@
     </row>
     <row r="65" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>700</v>
+        <v>1157</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>701</v>
+        <v>178</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>702</v>
+        <v>1055</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>703</v>
+        <v>1056</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>704</v>
+        <v>817</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>705</v>
+        <v>1057</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>1118</v>
+        <v>1058</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>67</v>
+        <v>1059</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>706</v>
+        <v>86</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>950</v>
+        <v>1060</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>324</v>
+        <v>1061</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>708</v>
+        <v>482</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>707</v>
+        <v>1062</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>709</v>
+        <v>1063</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>109</v>
+        <v>1064</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>710</v>
+        <v>1065</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>711</v>
+        <v>299</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>712</v>
+        <v>1066</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>713</v>
+        <v>1067</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>714</v>
+        <v>1068</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="W65" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
@@ -8123,211 +8134,132 @@
     </row>
     <row r="66" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>1119</v>
+        <v>1158</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>231</v>
+        <v>1069</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1120</v>
+        <v>215</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1121</v>
+        <v>1070</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>867</v>
+        <v>1071</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>1122</v>
+        <v>1072</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>1123</v>
+        <v>321</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>1124</v>
+        <v>430</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>91</v>
+        <v>1073</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>1125</v>
+        <v>1074</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>1126</v>
+        <v>930</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>510</v>
+        <v>63</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>1127</v>
+        <v>975</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>1128</v>
+        <v>218</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>1129</v>
+        <v>824</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>1130</v>
+        <v>98</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>1131</v>
+        <v>256</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>1132</v>
+        <v>89</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>1133</v>
+        <v>290</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>223</v>
+        <v>1075</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
+        <v>481</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE66" s="3" t="s">
+        <v>1081</v>
+      </c>
     </row>
     <row r="67" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>1134</v>
+        <v>1159</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1135</v>
+        <v>1084</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>218</v>
+        <v>1085</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>226</v>
+        <v>1086</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1136</v>
+        <v>597</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1137</v>
+        <v>245</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>1138</v>
+        <v>1087</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>340</v>
+        <v>1088</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>455</v>
+        <v>1089</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1139</v>
+        <v>1090</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="Q67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R67" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="S67" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="T67" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U67" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="V67" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="W67" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="X67" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="Y67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z67" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="AA67" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AB67" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AC67" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AD67" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE67" s="3" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>1158</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
